--- a/Results/Unmatched CQs/P1.xlsx
+++ b/Results/Unmatched CQs/P1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Desktop\F_Generative AI Results\Repository Files\Results\Unmatched CQs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Documents\RETROFIT-CQs\RETROFIT-CQs\Results\Unmatched CQs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202F0AB5-5935-4870-9FAD-9C0A41EA3848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B1FEED-5818-480D-9C6C-7655FE3E95CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
-  <si>
-    <t xml:space="preserve">Ontologiy Name </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>LLMs</t>
   </si>
   <si>
-    <t>Unmacyed CQs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Video Game </t>
   </si>
   <si>
@@ -99,9 +93,6 @@
   </si>
   <si>
     <t>Which properties from a blood pressure monitor are observed in events?</t>
-  </si>
-  <si>
-    <t>Promp1</t>
   </si>
   <si>
     <t xml:space="preserve"> What is the fastest car in the game?</t>
@@ -130,13 +121,70 @@
   </si>
   <si>
     <t>Which properties from a weight scale are observed in events?</t>
+  </si>
+  <si>
+    <t>Dem@care</t>
+  </si>
+  <si>
+    <t>What is the gender information?</t>
+  </si>
+  <si>
+    <t>What are the main types of laterality?</t>
+  </si>
+  <si>
+    <t>What are the main types of events?</t>
+  </si>
+  <si>
+    <t>What are the main types of information describing an event?</t>
+  </si>
+  <si>
+    <t>What are the main categories of events?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the main types of sensors? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the possible types of wearable sensors? </t>
+  </si>
+  <si>
+    <t>What are the possible types of fixed sensors?</t>
+  </si>
+  <si>
+    <t>What information is of clinical interest regarding night sleep?</t>
+  </si>
+  <si>
+    <t>What information is of clinical interest regarding a nap?</t>
+  </si>
+  <si>
+    <t>What information is of clinical interest regarding an awakening?</t>
+  </si>
+  <si>
+    <t>What states are detected?</t>
+  </si>
+  <si>
+    <t>What functional areas are of clinical relevance for the home and nursing home environments?</t>
+  </si>
+  <si>
+    <t>What are the types of indoor place?</t>
+  </si>
+  <si>
+    <t>What are the possible types processing components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontology Name </t>
+  </si>
+  <si>
+    <t>Unmactched CQs</t>
+  </si>
+  <si>
+    <t>Prompt1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +206,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,27 +222,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -203,28 +243,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A34"/>
+      <selection activeCell="A4" sqref="A4:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,298 +564,463 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6"/>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8" t="s">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6"/>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6"/>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="6"/>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="6"/>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="6"/>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" t="s">
+      <c r="B36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>6</v>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="A36:A61"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="A21:A34"/>
-    <mergeCell ref="B38:B44"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A4:A19"/>
     <mergeCell ref="B21:B28"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A36" r:id="rId1" xr:uid="{36F5B359-BF05-46C6-8C36-4E30F3630A3C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>